--- a/biology/Zoologie/Corydoras_schwartzi/Corydoras_schwartzi.xlsx
+++ b/biology/Zoologie/Corydoras_schwartzi/Corydoras_schwartzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corydoras schwartzi est une espèce de poissons de la famille des Callichthyidae et originaire du Brésil. C'est également un poisson d'aquarium apprécié.
 </t>
@@ -513,18 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description et dimorphisme
-Poisson de fond possédant des barbillons autour de la bouche. L'œil est barré de noir, le corps parsemé de points noirs. Le mâle est plus élancé et généralement plus petit que la femelle. Il peut atteindre jusqu'à 6 cm.
-Comportement
-Il est dynamique et accepte des paramètres d'eau variés. Son système respiratoire lui permet de stocker un peu d'air dans sa vessie natatoire, il remonte donc parfois en surface.
-Il n'aime pas les températures élevées car elles accélèrent son métabolisme, maximum 26 °C, la température idéale se situant dans les 23-24 °C.
-Reproduction
-La femelle pond quelques œufs qu'elle coince entre ses nageoires pelviennes où le mâle les fertilise. Puis la femelle nage vers un support qui lui convient où elle attache ses œufs. Le couple répète ce processus jusqu'à 100 œufs environ.
-Il peut vivre environ 8 ans.
-Alimentation
-Omnivore, il fouille volontiers le sol à la recherche de larves.
-Origine
-Corydoras schwartzi est endémique du bassin du rio Purus au Brésil[2].
+          <t>Description et dimorphisme</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poisson de fond possédant des barbillons autour de la bouche. L'œil est barré de noir, le corps parsemé de points noirs. Le mâle est plus élancé et généralement plus petit que la femelle. Il peut atteindre jusqu'à 6 cm.
 </t>
         </is>
       </c>
@@ -550,10 +557,162 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est dynamique et accepte des paramètres d'eau variés. Son système respiratoire lui permet de stocker un peu d'air dans sa vessie natatoire, il remonte donc parfois en surface.
+Il n'aime pas les températures élevées car elles accélèrent son métabolisme, maximum 26 °C, la température idéale se situant dans les 23-24 °C.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle pond quelques œufs qu'elle coince entre ses nageoires pelviennes où le mâle les fertilise. Puis la femelle nage vers un support qui lui convient où elle attache ses œufs. Le couple répète ce processus jusqu'à 100 œufs environ.
+Il peut vivre environ 8 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Omnivore, il fouille volontiers le sol à la recherche de larves.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description de l'espèce</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corydoras schwartzi est endémique du bassin du rio Purus au Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 C'est une espèce paisible qui vit bien dans un volume à partir de 100 litres d'eau minimum pour un groupe. Espèce grégaire, ce poisson a besoin du groupe pour s'épanouir. Il faut conserver un minimum de six individus, dix individus étant optimal dans 120 litres d'eau au moins. Peu exigeante quant à la qualité de l'eau, elle est idéale pour le débutant. Omnivore, on le nourrit de comprimés de fond, d'un apport végétal et de petits vers fins, appelés tubifex.
@@ -562,62 +721,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Corydoras_schwartzi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Corydoras_schwartzi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, schwartzi, lui a été donnée en l'honneur de Hans-Willi Schwartz (1909-1981), un exportateur de poissons d'aquarium de Manaus, qui a aidé à la capture de l'holotype[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, schwartzi, lui a été donnée en l'honneur de Hans-Willi Schwartz (1909-1981), un exportateur de poissons d'aquarium de Manaus, qui a aidé à la capture de l'holotype.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Corydoras_schwartzi</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Corydoras_schwartzi</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Corydoras_schwartzi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>(de) Fritz Rössel, « Neue und seltene Corydoras-Arten aus Brasilien (Pisces, Teleostei, Callichthyidae) », Senckenbergiana Biologica, vol. 44, no 5,‎ 1963, p. 359-363 (ISSN 0037-2102).</t>
         </is>
